--- a/INTLINE/data/193/ABS/310101.xlsx
+++ b/INTLINE/data/193/ABS/310101.xlsx
@@ -12,47 +12,47 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2133244X">Data1!$B$1:$B$10,Data1!$B$11:$B$172</definedName>
-    <definedName name="A2133244X_Data">Data1!$B$11:$B$172</definedName>
-    <definedName name="A2133244X_Latest">Data1!$B$172</definedName>
-    <definedName name="A2133245A">Data1!$C$1:$C$10,Data1!$C$11:$C$172</definedName>
-    <definedName name="A2133245A_Data">Data1!$C$11:$C$172</definedName>
-    <definedName name="A2133245A_Latest">Data1!$C$172</definedName>
-    <definedName name="A2133246C">Data1!$E$1:$E$10,Data1!$E$11:$E$172</definedName>
-    <definedName name="A2133246C_Data">Data1!$E$11:$E$172</definedName>
-    <definedName name="A2133246C_Latest">Data1!$E$172</definedName>
-    <definedName name="A2133247F">Data1!$F$1:$F$10,Data1!$F$11:$F$172</definedName>
-    <definedName name="A2133247F_Data">Data1!$F$11:$F$172</definedName>
-    <definedName name="A2133247F_Latest">Data1!$F$172</definedName>
-    <definedName name="A2133248J">Data1!$G$1:$G$10,Data1!$G$11:$G$172</definedName>
-    <definedName name="A2133248J_Data">Data1!$G$11:$G$172</definedName>
-    <definedName name="A2133248J_Latest">Data1!$G$172</definedName>
-    <definedName name="A2133249K">Data1!$H$1:$H$10,Data1!$H$11:$H$172</definedName>
-    <definedName name="A2133249K_Data">Data1!$H$11:$H$172</definedName>
-    <definedName name="A2133249K_Latest">Data1!$H$172</definedName>
-    <definedName name="A2133250V">Data1!$J$1:$J$10,Data1!$J$11:$J$172</definedName>
-    <definedName name="A2133250V_Data">Data1!$J$11:$J$172</definedName>
-    <definedName name="A2133250V_Latest">Data1!$J$172</definedName>
-    <definedName name="A2133251W">Data1!$L$1:$L$10,Data1!$L$11:$L$172</definedName>
-    <definedName name="A2133251W_Data">Data1!$L$11:$L$172</definedName>
-    <definedName name="A2133251W_Latest">Data1!$L$172</definedName>
-    <definedName name="A2133252X">Data1!$D$1:$D$10,Data1!$D$11:$D$172</definedName>
-    <definedName name="A2133252X_Data">Data1!$D$11:$D$172</definedName>
-    <definedName name="A2133252X_Latest">Data1!$D$172</definedName>
-    <definedName name="A2133253A">Data1!$I$1:$I$10,Data1!$I$11:$I$172</definedName>
-    <definedName name="A2133253A_Data">Data1!$I$11:$I$172</definedName>
-    <definedName name="A2133253A_Latest">Data1!$I$172</definedName>
-    <definedName name="A2133254C">Data1!$K$1:$K$10,Data1!$K$11:$K$172</definedName>
-    <definedName name="A2133254C_Data">Data1!$K$11:$K$172</definedName>
-    <definedName name="A2133254C_Latest">Data1!$K$172</definedName>
-    <definedName name="A2133255F">Data1!$M$1:$M$10,Data1!$M$11:$M$172</definedName>
-    <definedName name="A2133255F_Data">Data1!$M$11:$M$172</definedName>
-    <definedName name="A2133255F_Latest">Data1!$M$172</definedName>
-    <definedName name="A2133256J">Data1!$N$1:$N$10,Data1!$N$11:$N$172</definedName>
-    <definedName name="A2133256J_Data">Data1!$N$11:$N$172</definedName>
-    <definedName name="A2133256J_Latest">Data1!$N$172</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$172</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$172</definedName>
+    <definedName name="A2133244X">Data1!$B$1:$B$10,Data1!$B$11:$B$173</definedName>
+    <definedName name="A2133244X_Data">Data1!$B$11:$B$173</definedName>
+    <definedName name="A2133244X_Latest">Data1!$B$173</definedName>
+    <definedName name="A2133245A">Data1!$C$1:$C$10,Data1!$C$11:$C$173</definedName>
+    <definedName name="A2133245A_Data">Data1!$C$11:$C$173</definedName>
+    <definedName name="A2133245A_Latest">Data1!$C$173</definedName>
+    <definedName name="A2133246C">Data1!$E$1:$E$10,Data1!$E$11:$E$173</definedName>
+    <definedName name="A2133246C_Data">Data1!$E$11:$E$173</definedName>
+    <definedName name="A2133246C_Latest">Data1!$E$173</definedName>
+    <definedName name="A2133247F">Data1!$F$1:$F$10,Data1!$F$11:$F$173</definedName>
+    <definedName name="A2133247F_Data">Data1!$F$11:$F$173</definedName>
+    <definedName name="A2133247F_Latest">Data1!$F$173</definedName>
+    <definedName name="A2133248J">Data1!$G$1:$G$10,Data1!$G$11:$G$173</definedName>
+    <definedName name="A2133248J_Data">Data1!$G$11:$G$173</definedName>
+    <definedName name="A2133248J_Latest">Data1!$G$173</definedName>
+    <definedName name="A2133249K">Data1!$H$1:$H$10,Data1!$H$11:$H$173</definedName>
+    <definedName name="A2133249K_Data">Data1!$H$11:$H$173</definedName>
+    <definedName name="A2133249K_Latest">Data1!$H$173</definedName>
+    <definedName name="A2133250V">Data1!$J$1:$J$10,Data1!$J$11:$J$173</definedName>
+    <definedName name="A2133250V_Data">Data1!$J$11:$J$173</definedName>
+    <definedName name="A2133250V_Latest">Data1!$J$173</definedName>
+    <definedName name="A2133251W">Data1!$L$1:$L$10,Data1!$L$11:$L$173</definedName>
+    <definedName name="A2133251W_Data">Data1!$L$11:$L$173</definedName>
+    <definedName name="A2133251W_Latest">Data1!$L$173</definedName>
+    <definedName name="A2133252X">Data1!$D$1:$D$10,Data1!$D$11:$D$173</definedName>
+    <definedName name="A2133252X_Data">Data1!$D$11:$D$173</definedName>
+    <definedName name="A2133252X_Latest">Data1!$D$173</definedName>
+    <definedName name="A2133253A">Data1!$I$1:$I$10,Data1!$I$11:$I$173</definedName>
+    <definedName name="A2133253A_Data">Data1!$I$11:$I$173</definedName>
+    <definedName name="A2133253A_Latest">Data1!$I$173</definedName>
+    <definedName name="A2133254C">Data1!$K$1:$K$10,Data1!$K$11:$K$173</definedName>
+    <definedName name="A2133254C_Data">Data1!$K$11:$K$173</definedName>
+    <definedName name="A2133254C_Latest">Data1!$K$173</definedName>
+    <definedName name="A2133255F">Data1!$M$1:$M$10,Data1!$M$11:$M$173</definedName>
+    <definedName name="A2133255F_Data">Data1!$M$11:$M$173</definedName>
+    <definedName name="A2133255F_Latest">Data1!$M$173</definedName>
+    <definedName name="A2133256J">Data1!$N$1:$N$10,Data1!$N$11:$N$173</definedName>
+    <definedName name="A2133256J_Data">Data1!$N$11:$N$173</definedName>
+    <definedName name="A2133256J_Latest">Data1!$N$173</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$173</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$173</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2054,6 +2054,32 @@
       </text>
     </comment>
     <comment ref="J172" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J173" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2964,10 +2990,10 @@
         <v>29738</v>
       </c>
       <c r="G12" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>22</v>
@@ -2996,10 +3022,10 @@
         <v>29738</v>
       </c>
       <c r="G13" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>22</v>
@@ -3028,10 +3054,10 @@
         <v>29738</v>
       </c>
       <c r="G14" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>22</v>
@@ -3060,10 +3086,10 @@
         <v>29738</v>
       </c>
       <c r="G15" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>22</v>
@@ -3092,10 +3118,10 @@
         <v>29738</v>
       </c>
       <c r="G16" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>22</v>
@@ -3124,10 +3150,10 @@
         <v>29738</v>
       </c>
       <c r="G17" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>22</v>
@@ -3156,10 +3182,10 @@
         <v>29738</v>
       </c>
       <c r="G18" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>22</v>
@@ -3188,10 +3214,10 @@
         <v>29738</v>
       </c>
       <c r="G19" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>22</v>
@@ -3220,10 +3246,10 @@
         <v>29738</v>
       </c>
       <c r="G20" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>22</v>
@@ -3252,10 +3278,10 @@
         <v>29738</v>
       </c>
       <c r="G21" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>22</v>
@@ -3284,10 +3310,10 @@
         <v>29738</v>
       </c>
       <c r="G22" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>22</v>
@@ -3316,10 +3342,10 @@
         <v>29738</v>
       </c>
       <c r="G23" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>22</v>
@@ -3348,10 +3374,10 @@
         <v>29738</v>
       </c>
       <c r="G24" s="11">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H24" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>39</v>
@@ -3399,7 +3425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3723,43 +3749,43 @@
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="N8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3767,43 +3793,43 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -9877,10 +9903,10 @@
         <v>73.7</v>
       </c>
       <c r="L152" s="9">
-        <v>24299.9</v>
+        <v>24297.9</v>
       </c>
       <c r="M152" s="9">
-        <v>395.6</v>
+        <v>393.6</v>
       </c>
       <c r="N152" s="10">
         <v>1.65</v>
@@ -9917,13 +9943,13 @@
         <v>53.6</v>
       </c>
       <c r="L153" s="9">
-        <v>24389.7</v>
+        <v>24385.9</v>
       </c>
       <c r="M153" s="9">
-        <v>405.1</v>
+        <v>401.3</v>
       </c>
       <c r="N153" s="10">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -9957,13 +9983,13 @@
         <v>88.8</v>
       </c>
       <c r="L154" s="9">
-        <v>24518.400000000001</v>
+        <v>24512.6</v>
       </c>
       <c r="M154" s="9">
-        <v>414.9</v>
+        <v>409.2</v>
       </c>
       <c r="N154" s="10">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -9997,13 +10023,13 @@
         <v>47.3</v>
       </c>
       <c r="L155" s="9">
-        <v>24601.9</v>
+        <v>24594.2</v>
       </c>
       <c r="M155" s="9">
-        <v>411</v>
+        <v>403.3</v>
       </c>
       <c r="N155" s="10">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -10037,13 +10063,13 @@
         <v>69.7</v>
       </c>
       <c r="L156" s="9">
-        <v>24701.9</v>
+        <v>24692</v>
       </c>
       <c r="M156" s="9">
-        <v>402</v>
+        <v>394.1</v>
       </c>
       <c r="N156" s="10">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -10077,13 +10103,13 @@
         <v>35.799999999999997</v>
       </c>
       <c r="L157" s="9">
-        <v>24773.4</v>
+        <v>24761.4</v>
       </c>
       <c r="M157" s="9">
-        <v>383.7</v>
+        <v>375.6</v>
       </c>
       <c r="N157" s="10">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -10117,13 +10143,13 @@
         <v>85.1</v>
       </c>
       <c r="L158" s="9">
-        <v>24898.6</v>
+        <v>24884.6</v>
       </c>
       <c r="M158" s="9">
-        <v>380.3</v>
+        <v>372</v>
       </c>
       <c r="N158" s="10">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -10157,13 +10183,13 @@
         <v>47.6</v>
       </c>
       <c r="L159" s="9">
-        <v>24982.7</v>
+        <v>24966.6</v>
       </c>
       <c r="M159" s="9">
-        <v>380.8</v>
+        <v>372.4</v>
       </c>
       <c r="N159" s="10">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -10197,13 +10223,13 @@
         <v>73.8</v>
       </c>
       <c r="L160" s="9">
-        <v>25089.7</v>
+        <v>25071.200000000001</v>
       </c>
       <c r="M160" s="9">
-        <v>387.8</v>
+        <v>379.2</v>
       </c>
       <c r="N160" s="10">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -10237,13 +10263,13 @@
         <v>45.7</v>
       </c>
       <c r="L161" s="9">
-        <v>25171.3</v>
+        <v>25150.5</v>
       </c>
       <c r="M161" s="9">
-        <v>397.9</v>
+        <v>389.1</v>
       </c>
       <c r="N161" s="10">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -10277,13 +10303,13 @@
         <v>83.6</v>
       </c>
       <c r="L162" s="9">
-        <v>25293</v>
+        <v>25269.8</v>
       </c>
       <c r="M162" s="9">
-        <v>394.3</v>
+        <v>385.2</v>
       </c>
       <c r="N162" s="10">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -10317,13 +10343,13 @@
         <v>38.200000000000003</v>
       </c>
       <c r="L163" s="9">
-        <v>25365.7</v>
+        <v>25340.2</v>
       </c>
       <c r="M163" s="9">
-        <v>383.1</v>
+        <v>373.6</v>
       </c>
       <c r="N163" s="10">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -10357,13 +10383,13 @@
         <v>74.5</v>
       </c>
       <c r="L164" s="9">
-        <v>25472.3</v>
+        <v>25443.9</v>
       </c>
       <c r="M164" s="9">
-        <v>382.6</v>
+        <v>372.7</v>
       </c>
       <c r="N164" s="10">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -10397,13 +10423,13 @@
         <v>51.3</v>
       </c>
       <c r="L165" s="9">
-        <v>25557.9</v>
+        <v>25526.799999999999</v>
       </c>
       <c r="M165" s="9">
-        <v>386.6</v>
+        <v>376.3</v>
       </c>
       <c r="N165" s="10">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -10437,13 +10463,13 @@
         <v>75.2</v>
       </c>
       <c r="L166" s="9">
-        <v>25668.7</v>
+        <v>25634.400000000001</v>
       </c>
       <c r="M166" s="9">
-        <v>375.7</v>
+        <v>364.6</v>
       </c>
       <c r="N166" s="10">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -10477,13 +10503,13 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="L167" s="9">
-        <v>25693.3</v>
+        <v>25655.3</v>
       </c>
       <c r="M167" s="9">
-        <v>327.5</v>
+        <v>315.10000000000002</v>
       </c>
       <c r="N167" s="10">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -10517,13 +10543,13 @@
         <v>-42.6</v>
       </c>
       <c r="L168" s="9">
-        <v>25681.3</v>
+        <v>25639.599999999999</v>
       </c>
       <c r="M168" s="9">
-        <v>209</v>
+        <v>195.7</v>
       </c>
       <c r="N168" s="10">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -10546,24 +10572,24 @@
         <v>95.3</v>
       </c>
       <c r="G169" s="9">
-        <v>39.299999999999997</v>
+        <v>39.1</v>
       </c>
       <c r="H169" s="9">
-        <v>68.900000000000006</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
       <c r="K169" s="9">
-        <v>-29.6</v>
+        <v>-29.3</v>
       </c>
       <c r="L169" s="9">
-        <v>25683.599999999999</v>
+        <v>25638.7</v>
       </c>
       <c r="M169" s="9">
-        <v>125.6</v>
+        <v>111.8</v>
       </c>
       <c r="N169" s="10">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -10586,7 +10612,7 @@
         <v>94.7</v>
       </c>
       <c r="G170" s="9">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="H170" s="9">
         <v>55.2</v>
@@ -10594,16 +10620,16 @@
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
       <c r="K170" s="9">
-        <v>-14.6</v>
+        <v>-14.2</v>
       </c>
       <c r="L170" s="9">
-        <v>25704.6</v>
+        <v>25656.6</v>
       </c>
       <c r="M170" s="9">
-        <v>35.9</v>
+        <v>22.3</v>
       </c>
       <c r="N170" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -10626,24 +10652,24 @@
         <v>121.7</v>
       </c>
       <c r="G171" s="9">
-        <v>44.3</v>
+        <v>43.4</v>
       </c>
       <c r="H171" s="9">
-        <v>47.4</v>
+        <v>45.2</v>
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
       <c r="K171" s="9">
-        <v>-3.1</v>
+        <v>-1.7</v>
       </c>
       <c r="L171" s="9">
-        <v>25738.1</v>
+        <v>25688.1</v>
       </c>
       <c r="M171" s="9">
-        <v>44.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N171" s="10">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -10666,24 +10692,64 @@
         <v>145.6</v>
       </c>
       <c r="G172" s="9">
-        <v>35.700000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="H172" s="9">
-        <v>55.7</v>
+        <v>51.5</v>
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
       <c r="K172" s="9">
-        <v>-19.899999999999999</v>
+        <v>-16.8</v>
       </c>
       <c r="L172" s="9">
-        <v>25750.2</v>
+        <v>25703.200000000001</v>
       </c>
       <c r="M172" s="9">
-        <v>68.900000000000006</v>
+        <v>63.6</v>
       </c>
       <c r="N172" s="10">
-        <v>0.27</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="11">
+        <v>44531</v>
+      </c>
+      <c r="B173" s="9">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C173" s="9">
+        <v>42.2</v>
+      </c>
+      <c r="D173" s="9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E173" s="9">
+        <v>121.9</v>
+      </c>
+      <c r="F173" s="9">
+        <v>121.9</v>
+      </c>
+      <c r="G173" s="9">
+        <v>98</v>
+      </c>
+      <c r="H173" s="9">
+        <v>68.8</v>
+      </c>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9">
+        <v>29.1</v>
+      </c>
+      <c r="L173" s="9">
+        <v>25766.6</v>
+      </c>
+      <c r="M173" s="9">
+        <v>128</v>
+      </c>
+      <c r="N173" s="10">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
